--- a/Mifos Automation Excels/Client/3183-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%LOANAMT+INT-Regular-UPFRONT-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3183-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%LOANAMT+INT-Regular-UPFRONT-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="61">
   <si>
     <t>#</t>
   </si>
@@ -172,28 +172,37 @@
     <t>Income from interest(7)</t>
   </si>
   <si>
-    <t>$ 84.82</t>
-  </si>
-  <si>
-    <t>$ 93.91</t>
-  </si>
-  <si>
-    <t>L181</t>
-  </si>
-  <si>
-    <t>$ 800.98</t>
-  </si>
-  <si>
-    <t>$ 186.74</t>
-  </si>
-  <si>
-    <t>$ 987.72</t>
-  </si>
-  <si>
-    <t>Penalties Receivable(4)</t>
-  </si>
-  <si>
-    <t>Income from Penalties(8)</t>
+    <t>L199</t>
+  </si>
+  <si>
+    <t>$ 794.68</t>
+  </si>
+  <si>
+    <t>$ 896.6</t>
+  </si>
+  <si>
+    <t>L67</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>Penalties Receivable(5)</t>
+  </si>
+  <si>
+    <t>$ 8.88</t>
+  </si>
+  <si>
+    <t>Income from penalties(9)</t>
+  </si>
+  <si>
+    <t>L68</t>
+  </si>
+  <si>
+    <t>L70</t>
+  </si>
+  <si>
+    <t>$ 668.41</t>
   </si>
 </sst>
 </file>
@@ -300,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -333,8 +342,11 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,7 +651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -672,7 +684,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,26 +722,26 @@
       <c r="A2" s="9">
         <v>10000</v>
       </c>
-      <c r="B2" s="16">
-        <v>800.98</v>
+      <c r="B2" s="7">
+        <v>794.68</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
         <v>0</v>
       </c>
       <c r="E2" s="10">
-        <v>9199.02</v>
+        <v>9205.32</v>
       </c>
       <c r="F2" s="7">
-        <v>787.72</v>
+        <v>802.98</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>668.41</v>
+        <v>667.37</v>
       </c>
       <c r="B3" s="7">
-        <v>186.74</v>
+        <v>101.92</v>
       </c>
       <c r="C3" s="7">
         <v>0</v>
@@ -738,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>481.67</v>
+        <v>565.45000000000005</v>
       </c>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>84.74</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -795,7 +807,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection sqref="A1:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,10 +923,10 @@
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="7">
-        <v>785.8</v>
+        <v>794.68</v>
       </c>
       <c r="G3" s="10">
-        <v>9214.2000000000007</v>
+        <v>9205.32</v>
       </c>
       <c r="H3" s="7">
         <v>101.92</v>
@@ -926,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="7">
-        <v>887.72</v>
+        <v>896.6</v>
       </c>
       <c r="L3" s="7">
-        <v>887.72</v>
+        <v>896.6</v>
       </c>
       <c r="M3" s="7">
         <v>0</v>
@@ -957,13 +969,13 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7">
-        <v>802.9</v>
+        <v>802.98</v>
       </c>
       <c r="G4" s="10">
-        <v>8411.2999999999993</v>
+        <v>8402.34</v>
       </c>
       <c r="H4" s="7">
-        <v>84.82</v>
+        <v>84.74</v>
       </c>
       <c r="I4" s="7">
         <v>0</v>
@@ -975,10 +987,10 @@
         <v>887.72</v>
       </c>
       <c r="L4" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M4" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
         <v>0</v>
@@ -987,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="7">
-        <v>787.72</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1003,13 +1015,13 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7">
-        <v>793.81</v>
+        <v>793.9</v>
       </c>
       <c r="G5" s="10">
-        <v>7617.49</v>
+        <v>7608.44</v>
       </c>
       <c r="H5" s="7">
-        <v>93.91</v>
+        <v>93.82</v>
       </c>
       <c r="I5" s="7">
         <v>0</v>
@@ -1049,13 +1061,13 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7">
-        <v>812.59</v>
+        <v>812.68</v>
       </c>
       <c r="G6" s="10">
-        <v>6804.9</v>
+        <v>6795.76</v>
       </c>
       <c r="H6" s="7">
-        <v>75.13</v>
+        <v>75.040000000000006</v>
       </c>
       <c r="I6" s="7">
         <v>0</v>
@@ -1095,13 +1107,13 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7">
-        <v>818.37</v>
+        <v>818.46</v>
       </c>
       <c r="G7" s="10">
-        <v>5986.53</v>
+        <v>5977.3</v>
       </c>
       <c r="H7" s="7">
-        <v>69.349999999999994</v>
+        <v>69.260000000000005</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
@@ -1141,13 +1153,13 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7">
-        <v>828.67</v>
+        <v>828.77</v>
       </c>
       <c r="G8" s="10">
-        <v>5157.8599999999997</v>
+        <v>5148.53</v>
       </c>
       <c r="H8" s="7">
-        <v>59.05</v>
+        <v>58.95</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
@@ -1187,13 +1199,13 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7">
-        <v>835.15</v>
+        <v>835.25</v>
       </c>
       <c r="G9" s="10">
-        <v>4322.71</v>
+        <v>4313.28</v>
       </c>
       <c r="H9" s="7">
-        <v>52.57</v>
+        <v>52.47</v>
       </c>
       <c r="I9" s="7">
         <v>0</v>
@@ -1233,13 +1245,13 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7">
-        <v>843.66</v>
+        <v>843.76</v>
       </c>
       <c r="G10" s="10">
-        <v>3479.05</v>
+        <v>3469.52</v>
       </c>
       <c r="H10" s="7">
-        <v>44.06</v>
+        <v>43.96</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
@@ -1279,13 +1291,13 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7">
-        <v>853.41</v>
+        <v>853.5</v>
       </c>
       <c r="G11" s="10">
-        <v>2625.64</v>
+        <v>2616.02</v>
       </c>
       <c r="H11" s="7">
-        <v>34.31</v>
+        <v>34.22</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
@@ -1325,13 +1337,13 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7">
-        <v>860.96</v>
+        <v>861.06</v>
       </c>
       <c r="G12" s="10">
-        <v>1764.68</v>
+        <v>1754.96</v>
       </c>
       <c r="H12" s="7">
-        <v>26.76</v>
+        <v>26.66</v>
       </c>
       <c r="I12" s="7">
         <v>0</v>
@@ -1371,13 +1383,13 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7">
-        <v>870.31</v>
+        <v>870.41</v>
       </c>
       <c r="G13" s="7">
-        <v>894.37</v>
+        <v>884.55</v>
       </c>
       <c r="H13" s="7">
-        <v>17.41</v>
+        <v>17.309999999999999</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
@@ -1417,13 +1429,13 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7">
-        <v>894.37</v>
+        <v>884.55</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
       </c>
       <c r="H14" s="7">
-        <v>9.1199999999999992</v>
+        <v>9.02</v>
       </c>
       <c r="I14" s="7">
         <v>0</v>
@@ -1432,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="7">
-        <v>903.49</v>
+        <v>893.57</v>
       </c>
       <c r="L14" s="7">
         <v>0</v>
@@ -1447,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="7">
-        <v>903.49</v>
+        <v>893.57</v>
       </c>
     </row>
   </sheetData>
@@ -1461,7 +1473,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A2:XFD7"/>
+      <selection sqref="A1:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,7 +1525,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>27</v>
@@ -1547,7 +1559,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
@@ -1581,7 +1593,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>27</v>
@@ -1593,13 +1605,13 @@
         <v>40</v>
       </c>
       <c r="E4" s="7">
-        <v>987.72</v>
+        <v>896.6</v>
       </c>
       <c r="F4" s="7">
-        <v>800.98</v>
+        <v>794.68</v>
       </c>
       <c r="G4" s="7">
-        <v>186.74</v>
+        <v>101.92</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1608,14 +1620,14 @@
         <v>0</v>
       </c>
       <c r="J4" s="10">
-        <v>9199.02</v>
+        <v>9205.32</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>27</v>
@@ -1649,7 +1661,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>27</v>
@@ -1794,7 +1806,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A2:XFD6"/>
+      <selection sqref="A1:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1835,7 +1847,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>27</v>
@@ -1844,7 +1856,7 @@
         <v>42036</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>36</v>
@@ -1857,12 +1869,12 @@
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
-        <v>237</v>
+        <v>293</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>27</v>
@@ -1871,7 +1883,7 @@
         <v>42036</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>36</v>
@@ -1884,12 +1896,12 @@
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>238</v>
+        <v>295</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>27</v>
@@ -1898,7 +1910,7 @@
         <v>42036</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>36</v>
@@ -1910,7 +1922,7 @@
         <v>37</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I4" s="12"/>
     </row>
@@ -1921,10 +1933,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1968,263 +1980,165 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>192</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="16">
+        <v>140</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="17">
         <v>42036</v>
       </c>
-      <c r="D2" s="12">
-        <v>1</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>141</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="17">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>142</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="17">
+        <v>42064</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>143</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="17">
+        <v>42064</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>149</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="17">
+        <v>42005</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>193</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="H8" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>150</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="12">
-        <v>42036</v>
-      </c>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="C9" s="17">
+        <v>42005</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>194</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="12">
-        <v>42036</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>195</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="12">
-        <v>42036</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>216</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="12">
-        <v>42064</v>
-      </c>
-      <c r="D7" s="12">
-        <v>2</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>217</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="12">
-        <v>42064</v>
-      </c>
-      <c r="D8" s="12">
-        <v>2</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>218</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="12">
-        <v>42064</v>
-      </c>
-      <c r="D9" s="12">
-        <v>2</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>219</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="12">
-        <v>42064</v>
-      </c>
-      <c r="D10" s="12">
-        <v>2</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>220</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="12">
-        <v>42095</v>
-      </c>
-      <c r="D12" s="12">
-        <v>3</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>221</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="12">
-        <v>42095</v>
-      </c>
-      <c r="D13" s="12">
-        <v>3</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>51</v>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/3183-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%LOANAMT+INT-Regular-UPFRONT-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3183-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%LOANAMT+INT-Regular-UPFRONT-Makerepayment1.xlsx
@@ -13,14 +13,14 @@
     <sheet name="Transactions" sheetId="4" r:id="rId4"/>
     <sheet name="Acc_Disbursement" sheetId="6" r:id="rId5"/>
     <sheet name="Acc_Repayment" sheetId="8" r:id="rId6"/>
-    <sheet name="Acc_Periodic" sheetId="9" r:id="rId7"/>
+    <sheet name="Acc_Upfront" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="61">
   <si>
     <t>#</t>
   </si>
@@ -148,15 +148,9 @@
     <t>L7</t>
   </si>
   <si>
-    <t>$ 10,000</t>
-  </si>
-  <si>
     <t>Interest Receivable(3)</t>
   </si>
   <si>
-    <t>$ 101.92</t>
-  </si>
-  <si>
     <t>clickonmakerepayment</t>
   </si>
   <si>
@@ -172,15 +166,6 @@
     <t>Income from interest(7)</t>
   </si>
   <si>
-    <t>L199</t>
-  </si>
-  <si>
-    <t>$ 794.68</t>
-  </si>
-  <si>
-    <t>$ 896.6</t>
-  </si>
-  <si>
     <t>L67</t>
   </si>
   <si>
@@ -190,9 +175,6 @@
     <t>Penalties Receivable(5)</t>
   </si>
   <si>
-    <t>$ 8.88</t>
-  </si>
-  <si>
     <t>Income from penalties(9)</t>
   </si>
   <si>
@@ -202,7 +184,25 @@
     <t>L70</t>
   </si>
   <si>
-    <t>$ 668.41</t>
+    <t>$ 10,000</t>
+  </si>
+  <si>
+    <t>L1480</t>
+  </si>
+  <si>
+    <t>$ 785.8</t>
+  </si>
+  <si>
+    <t>$ 101.92</t>
+  </si>
+  <si>
+    <t>$ 8.88</t>
+  </si>
+  <si>
+    <t>$ 896.6</t>
+  </si>
+  <si>
+    <t>$ 668.41</t>
   </si>
 </sst>
 </file>
@@ -309,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -347,6 +347,26 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,15 +680,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="15">
         <v>42036</v>
@@ -681,10 +701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +718,7 @@
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -718,27 +738,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>10000</v>
       </c>
       <c r="B2" s="7">
-        <v>794.68</v>
+        <v>785.8</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
         <v>0</v>
       </c>
       <c r="E2" s="10">
-        <v>9205.32</v>
+        <v>9214.2000000000007</v>
       </c>
       <c r="F2" s="7">
-        <v>802.98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>802.9</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>667.37</v>
+        <v>668.41</v>
       </c>
       <c r="B3" s="7">
         <v>101.92</v>
@@ -750,13 +771,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>565.45000000000005</v>
+        <v>566.49</v>
       </c>
       <c r="F3" s="7">
-        <v>84.74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>84.82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>0</v>
       </c>
@@ -776,12 +797,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>0</v>
+        <v>17.760000000000002</v>
       </c>
       <c r="B5" s="7">
-        <v>0</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -790,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="7">
-        <v>0</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>8.8800000000000008</v>
       </c>
     </row>
   </sheetData>
@@ -807,7 +828,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:P14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,7 +927,6 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -923,10 +943,10 @@
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="7">
-        <v>794.68</v>
+        <v>785.8</v>
       </c>
       <c r="G3" s="10">
-        <v>9205.32</v>
+        <v>9214.2000000000007</v>
       </c>
       <c r="H3" s="7">
         <v>101.92</v>
@@ -935,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="7">
-        <v>0</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="K3" s="7">
         <v>896.6</v>
@@ -947,9 +967,6 @@
         <v>0</v>
       </c>
       <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
         <v>0</v>
       </c>
       <c r="P3" s="7">
@@ -969,22 +986,22 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7">
-        <v>802.98</v>
+        <v>802.9</v>
       </c>
       <c r="G4" s="10">
-        <v>8402.34</v>
+        <v>8411.2999999999993</v>
       </c>
       <c r="H4" s="7">
-        <v>84.74</v>
+        <v>84.82</v>
       </c>
       <c r="I4" s="7">
         <v>0</v>
       </c>
       <c r="J4" s="7">
-        <v>0</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="K4" s="7">
-        <v>887.72</v>
+        <v>896.6</v>
       </c>
       <c r="L4" s="7">
         <v>0</v>
@@ -995,11 +1012,8 @@
       <c r="N4" s="7">
         <v>0</v>
       </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
       <c r="P4" s="7">
-        <v>887.72</v>
+        <v>896.6</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1015,13 +1029,13 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7">
-        <v>793.9</v>
+        <v>793.81</v>
       </c>
       <c r="G5" s="10">
-        <v>7608.44</v>
+        <v>7617.49</v>
       </c>
       <c r="H5" s="7">
-        <v>93.82</v>
+        <v>93.91</v>
       </c>
       <c r="I5" s="7">
         <v>0</v>
@@ -1039,9 +1053,6 @@
         <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
         <v>0</v>
       </c>
       <c r="P5" s="7">
@@ -1061,13 +1072,13 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7">
-        <v>812.68</v>
+        <v>812.59</v>
       </c>
       <c r="G6" s="10">
-        <v>6795.76</v>
+        <v>6804.9</v>
       </c>
       <c r="H6" s="7">
-        <v>75.040000000000006</v>
+        <v>75.13</v>
       </c>
       <c r="I6" s="7">
         <v>0</v>
@@ -1085,9 +1096,6 @@
         <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
         <v>0</v>
       </c>
       <c r="P6" s="7">
@@ -1107,13 +1115,13 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7">
-        <v>818.46</v>
+        <v>818.37</v>
       </c>
       <c r="G7" s="10">
-        <v>5977.3</v>
+        <v>5986.53</v>
       </c>
       <c r="H7" s="7">
-        <v>69.260000000000005</v>
+        <v>69.349999999999994</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
@@ -1131,9 +1139,6 @@
         <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
         <v>0</v>
       </c>
       <c r="P7" s="7">
@@ -1153,13 +1158,13 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7">
-        <v>828.77</v>
+        <v>828.67</v>
       </c>
       <c r="G8" s="10">
-        <v>5148.53</v>
+        <v>5157.8599999999997</v>
       </c>
       <c r="H8" s="7">
-        <v>58.95</v>
+        <v>59.05</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
@@ -1177,9 +1182,6 @@
         <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
         <v>0</v>
       </c>
       <c r="P8" s="7">
@@ -1199,13 +1201,13 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7">
-        <v>835.25</v>
+        <v>835.15</v>
       </c>
       <c r="G9" s="10">
-        <v>4313.28</v>
+        <v>4322.71</v>
       </c>
       <c r="H9" s="7">
-        <v>52.47</v>
+        <v>52.57</v>
       </c>
       <c r="I9" s="7">
         <v>0</v>
@@ -1223,9 +1225,6 @@
         <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
         <v>0</v>
       </c>
       <c r="P9" s="7">
@@ -1245,13 +1244,13 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7">
-        <v>843.76</v>
+        <v>843.66</v>
       </c>
       <c r="G10" s="10">
-        <v>3469.52</v>
+        <v>3479.05</v>
       </c>
       <c r="H10" s="7">
-        <v>43.96</v>
+        <v>44.06</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
@@ -1269,9 +1268,6 @@
         <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
         <v>0</v>
       </c>
       <c r="P10" s="7">
@@ -1291,13 +1287,13 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7">
-        <v>853.5</v>
+        <v>853.41</v>
       </c>
       <c r="G11" s="10">
-        <v>2616.02</v>
+        <v>2625.64</v>
       </c>
       <c r="H11" s="7">
-        <v>34.22</v>
+        <v>34.31</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
@@ -1315,9 +1311,6 @@
         <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
         <v>0</v>
       </c>
       <c r="P11" s="7">
@@ -1337,13 +1330,13 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7">
-        <v>861.06</v>
+        <v>860.96</v>
       </c>
       <c r="G12" s="10">
-        <v>1754.96</v>
+        <v>1764.68</v>
       </c>
       <c r="H12" s="7">
-        <v>26.66</v>
+        <v>26.76</v>
       </c>
       <c r="I12" s="7">
         <v>0</v>
@@ -1361,9 +1354,6 @@
         <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
         <v>0</v>
       </c>
       <c r="P12" s="7">
@@ -1383,13 +1373,13 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7">
-        <v>870.41</v>
+        <v>870.31</v>
       </c>
       <c r="G13" s="7">
-        <v>884.55</v>
+        <v>894.37</v>
       </c>
       <c r="H13" s="7">
-        <v>17.309999999999999</v>
+        <v>17.41</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
@@ -1407,9 +1397,6 @@
         <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7">
         <v>0</v>
       </c>
       <c r="P13" s="7">
@@ -1429,13 +1416,13 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7">
-        <v>884.55</v>
+        <v>894.37</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
       </c>
       <c r="H14" s="7">
-        <v>9.02</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="I14" s="7">
         <v>0</v>
@@ -1444,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="7">
-        <v>893.57</v>
+        <v>903.49</v>
       </c>
       <c r="L14" s="7">
         <v>0</v>
@@ -1455,11 +1442,8 @@
       <c r="N14" s="7">
         <v>0</v>
       </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
       <c r="P14" s="7">
-        <v>893.57</v>
+        <v>903.49</v>
       </c>
     </row>
   </sheetData>
@@ -1473,7 +1457,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,31 +1509,31 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>201</v>
+        <v>1475</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="8">
-        <v>42095</v>
+        <v>42064</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="7">
-        <v>93.91</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="F2" s="7">
         <v>0</v>
       </c>
       <c r="G2" s="7">
-        <v>93.91</v>
+        <v>0</v>
       </c>
       <c r="H2" s="7">
         <v>0</v>
       </c>
       <c r="I2" s="7">
-        <v>0</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="J2" s="7">
         <v>0</v>
@@ -1559,41 +1543,41 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>200</v>
+        <v>1480</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="8">
-        <v>42064</v>
+        <v>42036</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="7">
-        <v>84.82</v>
+        <v>896.6</v>
       </c>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>785.8</v>
       </c>
       <c r="G3" s="7">
-        <v>84.82</v>
+        <v>101.92</v>
       </c>
       <c r="H3" s="7">
         <v>0</v>
       </c>
       <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="J3" s="10">
+        <v>9214.2000000000007</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>199</v>
+        <v>1474</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>27</v>
@@ -1602,50 +1586,50 @@
         <v>42036</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="7">
-        <v>896.6</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="F4" s="7">
-        <v>794.68</v>
+        <v>0</v>
       </c>
       <c r="G4" s="7">
-        <v>101.92</v>
+        <v>0</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
-        <v>9205.32</v>
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>196</v>
+        <v>1481</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="8">
-        <v>42036</v>
+        <v>42005</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="7">
-        <v>101.92</v>
+        <v>668.41</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
       </c>
       <c r="G5" s="7">
-        <v>101.92</v>
+        <v>668.41</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1661,7 +1645,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>184</v>
+        <v>1466</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>27</v>
@@ -1700,10 +1684,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1711,7 +1695,7 @@
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -1740,7 +1724,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>13</v>
       </c>
@@ -1762,13 +1746,11 @@
       <c r="G2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H2" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>14</v>
       </c>
@@ -1791,10 +1773,9 @@
         <v>37</v>
       </c>
       <c r="H3" s="13"/>
-      <c r="I3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="13"/>
+      <c r="I3" s="19" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1803,10 +1784,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1846,85 +1827,112 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>292</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="22">
+        <v>3019</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="23">
         <v>42036</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>3020</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="23">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>3021</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="23">
+        <v>42036</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>3022</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="23">
+        <v>42036</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F5" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>293</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="12">
-        <v>42036</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>295</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="12">
-        <v>42036</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="G5" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="12"/>
+      <c r="H5" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1936,7 +1944,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,7 +1954,7 @@
     <col min="4" max="4" width="14.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="12"/>
     <col min="6" max="6" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
@@ -1990,21 +1998,21 @@
         <v>42036</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="16"/>
+        <v>50</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
@@ -2017,20 +2025,20 @@
         <v>42036</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2044,21 +2052,21 @@
         <v>42064</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="16"/>
+        <v>50</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
@@ -2071,20 +2079,20 @@
         <v>42064</v>
       </c>
       <c r="D6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25" t="s">
         <v>58</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2098,7 +2106,7 @@
         <v>42005</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>36</v>
@@ -2107,12 +2115,12 @@
         <v>35</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="16"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -2125,19 +2133,19 @@
         <v>42005</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>35</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25" t="s">
         <v>60</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/3183-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%LOANAMT+INT-Regular-UPFRONT-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3183-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%LOANAMT+INT-Regular-UPFRONT-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -13,14 +13,16 @@
     <sheet name="Transactions" sheetId="4" r:id="rId4"/>
     <sheet name="Acc_Disbursement" sheetId="6" r:id="rId5"/>
     <sheet name="Acc_Repayment" sheetId="8" r:id="rId6"/>
-    <sheet name="Acc_Upfront" sheetId="9" r:id="rId7"/>
+    <sheet name="Acc_Upfront3" sheetId="9" r:id="rId7"/>
+    <sheet name="Acc_Upfront1" sheetId="10" r:id="rId8"/>
+    <sheet name="Acc_Upfront2" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="61">
   <si>
     <t>#</t>
   </si>
@@ -1941,10 +1943,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,24 +1991,122 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="17">
-        <v>42036</v>
+        <v>42005</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>150</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="17">
+        <v>42005</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>140</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="23">
+        <v>42036</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="22" t="s">
         <v>50</v>
       </c>
       <c r="H2" s="25" t="s">
@@ -2015,25 +2115,25 @@
       <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="22">
         <v>141</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="23">
         <v>42036</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="22" t="s">
         <v>51</v>
       </c>
       <c r="H3" s="24"/>
@@ -2041,112 +2141,102 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
         <v>142</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C2" s="23">
         <v>42064</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D2" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F2" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H2" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
         <v>143</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C3" s="23">
         <v>42064</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D3" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E3" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F3" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G3" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25" t="s">
+      <c r="H3" s="24"/>
+      <c r="I3" s="25" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
-        <v>149</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="17">
-        <v>42005</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="24"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <v>150</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="17">
-        <v>42005</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/3183-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%LOANAMT+INT-Regular-UPFRONT-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3183-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%LOANAMT+INT-Regular-UPFRONT-Makerepayment1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="3" activeTab="6"/>
   </bookViews>
@@ -13,8 +18,8 @@
     <sheet name="Transactions" sheetId="4" r:id="rId4"/>
     <sheet name="Acc_Disbursement" sheetId="6" r:id="rId5"/>
     <sheet name="Acc_Repayment" sheetId="8" r:id="rId6"/>
-    <sheet name="Acc_Upfront3" sheetId="9" r:id="rId7"/>
-    <sheet name="Acc_Upfront1" sheetId="10" r:id="rId8"/>
+    <sheet name="Acc_Upfront1" sheetId="9" r:id="rId7"/>
+    <sheet name="Acc_Upfront3" sheetId="10" r:id="rId8"/>
     <sheet name="Acc_Upfront2" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -210,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,11 +379,42 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -427,7 +463,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -460,9 +496,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -495,6 +548,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1459,7 +1529,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,7 +2016,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Mifos Automation Excels/Client/3183-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%LOANAMT+INT-Regular-UPFRONT-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3183-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%LOANAMT+INT-Regular-UPFRONT-Makerepayment1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -215,7 +210,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -463,7 +458,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -496,26 +491,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -548,23 +526,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -897,10 +858,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,12 +879,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="24" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -963,17 +925,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8">
@@ -999,8 +962,9 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1038,14 +1002,15 @@
       <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="7"/>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1081,14 +1046,15 @@
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
+      <c r="N4" s="7"/>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
         <v>896.6</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1124,14 +1090,15 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
+      <c r="N5" s="7"/>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1167,14 +1134,15 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
+      <c r="N6" s="7"/>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -1210,14 +1178,15 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
+      <c r="N7" s="7"/>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -1253,14 +1222,15 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
+      <c r="N8" s="7"/>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -1296,14 +1266,15 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
+      <c r="N9" s="7"/>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -1339,14 +1310,15 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
+      <c r="N10" s="7"/>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -1382,14 +1354,15 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
+      <c r="N11" s="7"/>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -1425,14 +1398,15 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
+      <c r="N12" s="7"/>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -1468,14 +1442,15 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
+      <c r="N13" s="7"/>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -1511,10 +1486,11 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
+      <c r="N14" s="7"/>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
         <v>903.49</v>
       </c>
     </row>
@@ -2015,7 +1991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
